--- a/Excel_Assignment (1).xlsx
+++ b/Excel_Assignment (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB03768-D97E-4F6F-AA14-18CDA42086ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E812CC-0C3A-4C08-BBED-0B5C87DF34A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,36 @@
   </si>
   <si>
     <t>Average Total Sales</t>
+  </si>
+  <si>
+    <t>employees in Sales department</t>
+  </si>
+  <si>
+    <t>Total salary in IT department:</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Average salary</t>
+  </si>
+  <si>
+    <t>Count of employees with attendance &lt; 90</t>
+  </si>
+  <si>
+    <t>Highest salary</t>
+  </si>
+  <si>
+    <t>Average attendance</t>
+  </si>
+  <si>
+    <t>Display “Bonus” if Salary &gt; 45,000 else “No Bonus</t>
+  </si>
+  <si>
+    <t>Employees whose names start with 'A</t>
+  </si>
+  <si>
+    <t>Sum of salaries with attendance &gt; 90</t>
   </si>
 </sst>
 </file>
@@ -550,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -845,10 +875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,109 +888,276 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>35000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F2" s="2">
+        <f>COUNTIF(C2:C6,"Sales")</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUMIF(C2:C6,"IT",D2:D6)</f>
+        <v>50000</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IF(E2&gt;90,"GOOD","IMPROVE")</f>
+        <v>GOOD</v>
+      </c>
+      <c r="I2" s="2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>42000</v>
+      </c>
+      <c r="J2" s="2">
+        <f>COUNTIF(E2:E6,"&gt;90")</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <f>MAX(D2:D6)</f>
+        <v>50000</v>
+      </c>
+      <c r="L2" s="2">
+        <f>AVERAGE(E2:E6)</f>
+        <v>90.8</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IF(D2&gt;45000,"Bouns","No Bonus")</f>
+        <v>No Bonus</v>
+      </c>
+      <c r="N2" s="2">
+        <f>COUNTIF(B2:B6,"A*")</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="7">
+        <f>SUMIF(E2:E6,"&gt;90",D2:D6)</f>
+        <v>121000</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>42000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H5" si="0">IF(E3&gt;90,"GOOD","IMPROVE")</f>
+        <v>IMPROVE</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M6" si="1">IF(D3&gt;45000,"Bouns","No Bonus")</f>
+        <v>No Bonus</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>50000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GOOD</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bouns</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>47000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IMPROVE</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bouns</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>36000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>91</v>
       </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
+        <f>IF(E6&gt;90,"GOOD","IMPROVE")</f>
+        <v>GOOD</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>No Bonus</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
